--- a/gui/data_detail.xlsx
+++ b/gui/data_detail.xlsx
@@ -1363,7 +1363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>1388.0973</t>
+          <t>1388.0971</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>967.6002</t>
+          <t>967.6001</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>337.0</t>
+          <t>337.001</t>
         </is>
       </c>
       <c r="M5" s="0" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="P5" s="0" t="inlineStr">
         <is>
-          <t>531.659</t>
+          <t>531.66</t>
         </is>
       </c>
       <c r="Q5" s="0" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>1253.1548</t>
+          <t>1253.1537</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -1626,8 +1626,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>2021</v>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1636,673 +1638,253 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>6753.6</t>
+          <t>30439.8</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>323.74</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>28.816</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O6" s="0" t="inlineStr">
         <is>
-          <t>33.39</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P6" s="0" t="inlineStr">
         <is>
-          <t>487.078</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q6" s="0" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R6" s="0" t="inlineStr">
         <is>
-          <t>2.816</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>1042.3783</t>
+          <t>5002.4438</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
         <is>
-          <t>51.225</t>
+          <t>241.253</t>
         </is>
       </c>
       <c r="U6" s="0" t="inlineStr">
         <is>
-          <t>59.307</t>
+          <t>460.304</t>
         </is>
       </c>
       <c r="V6" s="0" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>264.0</t>
         </is>
       </c>
       <c r="W6" s="0" t="inlineStr">
         <is>
-          <t>1240.91</t>
+          <t>6056.000999999999</t>
         </is>
       </c>
       <c r="X6" s="0" t="inlineStr">
         <is>
-          <t>5.442</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Y6" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>5909.4</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>319.8</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>28.016</t>
-        </is>
-      </c>
-      <c r="O7" s="0" t="inlineStr">
-        <is>
-          <t>32.58</t>
-        </is>
-      </c>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>423.082</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>3.016</t>
-        </is>
-      </c>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>849.7017</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>50.508</t>
-        </is>
-      </c>
-      <c r="U7" s="0" t="inlineStr">
-        <is>
-          <t>39.616</t>
-        </is>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>1027.826</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>5.749</t>
-        </is>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+      <c r="F7" s="0" t="n"/>
+      <c r="H7" s="0" t="n"/>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="K7" s="0" t="n"/>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
+      <c r="N7" s="0" t="n"/>
+      <c r="O7" s="0" t="n"/>
+      <c r="P7" s="0" t="n"/>
+      <c r="Q7" s="0" t="n"/>
+      <c r="R7" s="0" t="n"/>
+      <c r="S7" s="0" t="n"/>
+      <c r="T7" s="0" t="n"/>
+      <c r="U7" s="0" t="n"/>
+      <c r="V7" s="0" t="n"/>
+      <c r="W7" s="0" t="n"/>
+      <c r="X7" s="0" t="n"/>
       <c r="Y7" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>5065.2</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>16.748</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>321.68</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>30.176</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>25.497</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t>30.775</t>
-        </is>
-      </c>
-      <c r="P8" s="0" t="inlineStr">
-        <is>
-          <t>465.147</t>
-        </is>
-      </c>
-      <c r="Q8" s="0" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>1.497</t>
-        </is>
-      </c>
-      <c r="S8" s="0" t="inlineStr">
-        <is>
-          <t>663.526</t>
-        </is>
-      </c>
-      <c r="T8" s="0" t="inlineStr">
-        <is>
-          <t>33.892</t>
-        </is>
-      </c>
-      <c r="U8" s="0" t="inlineStr">
-        <is>
-          <t>34.169</t>
-        </is>
-      </c>
-      <c r="V8" s="0" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>819.587</t>
-        </is>
-      </c>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+      <c r="F8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
+      <c r="N8" s="0" t="n"/>
+      <c r="O8" s="0" t="n"/>
+      <c r="P8" s="0" t="n"/>
+      <c r="Q8" s="0" t="n"/>
+      <c r="R8" s="0" t="n"/>
+      <c r="S8" s="0" t="n"/>
+      <c r="T8" s="0" t="n"/>
+      <c r="U8" s="0" t="n"/>
+      <c r="V8" s="0" t="n"/>
+      <c r="W8" s="0" t="n"/>
+      <c r="X8" s="0" t="n"/>
       <c r="Y8" s="0" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
+      <c r="O9" s="0" t="n"/>
+      <c r="P9" s="0" t="n"/>
+      <c r="Q9" s="0" t="n"/>
+      <c r="R9" s="0" t="n"/>
+      <c r="S9" s="0" t="n"/>
+      <c r="T9" s="0" t="n"/>
+      <c r="U9" s="0" t="n"/>
+      <c r="V9" s="0" t="n"/>
+      <c r="W9" s="0" t="n"/>
+      <c r="X9" s="0" t="n"/>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>4221.0</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>15.657</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>319.8</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>24.625</t>
-        </is>
-      </c>
-      <c r="O9" s="0" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="P9" s="0" t="inlineStr">
-        <is>
-          <t>423.406</t>
-        </is>
-      </c>
-      <c r="Q9" s="0" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>1.625</t>
-        </is>
-      </c>
-      <c r="S9" s="0" t="inlineStr">
-        <is>
-          <t>516.0071</t>
-        </is>
-      </c>
-      <c r="T9" s="0" t="inlineStr">
-        <is>
-          <t>33.672</t>
-        </is>
-      </c>
-      <c r="U9" s="0" t="inlineStr">
-        <is>
-          <t>26.458</t>
-        </is>
-      </c>
-      <c r="V9" s="0" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>664.137</t>
-        </is>
-      </c>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>6.356</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n"/>
+      <c r="H10" s="0" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
+      <c r="N10" s="0" t="n"/>
+      <c r="O10" s="0" t="n"/>
+      <c r="P10" s="0" t="n"/>
+      <c r="Q10" s="0" t="n"/>
+      <c r="R10" s="0" t="n"/>
+      <c r="S10" s="0" t="n"/>
+      <c r="T10" s="0" t="n"/>
+      <c r="U10" s="0" t="n"/>
+      <c r="V10" s="0" t="n"/>
+      <c r="W10" s="0" t="n"/>
+      <c r="X10" s="0" t="n"/>
+      <c r="Y10" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>3376.8</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>14.525</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>319.8</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>23.757</t>
-        </is>
-      </c>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>27.757</t>
-        </is>
-      </c>
-      <c r="P10" s="0" t="inlineStr">
-        <is>
-          <t>422.5</t>
-        </is>
-      </c>
-      <c r="Q10" s="0" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>1.757</t>
-        </is>
-      </c>
-      <c r="S10" s="0" t="inlineStr">
-        <is>
-          <t>383.1386</t>
-        </is>
-      </c>
-      <c r="T10" s="0" t="inlineStr">
-        <is>
-          <t>33.672</t>
-        </is>
-      </c>
-      <c r="U10" s="0" t="inlineStr">
-        <is>
-          <t>26.327</t>
-        </is>
-      </c>
-      <c r="V10" s="0" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>531.138</t>
-        </is>
-      </c>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>6.358</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>2532.6</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>16.788</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>319.8</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>21.305</t>
-        </is>
-      </c>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>26.995</t>
-        </is>
-      </c>
-      <c r="P11" s="0" t="inlineStr">
-        <is>
-          <t>422.5</t>
-        </is>
-      </c>
-      <c r="Q11" s="0" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>1.305</t>
-        </is>
-      </c>
-      <c r="S11" s="0" t="inlineStr">
-        <is>
-          <t>272.0568</t>
-        </is>
-      </c>
-      <c r="T11" s="0" t="inlineStr">
-        <is>
-          <t>16.836</t>
-        </is>
-      </c>
-      <c r="U11" s="0" t="inlineStr">
-        <is>
-          <t>13.164</t>
-        </is>
-      </c>
-      <c r="V11" s="0" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>368.056</t>
-        </is>
-      </c>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>6.881</t>
-        </is>
-      </c>
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
+      <c r="N11" s="0" t="n"/>
+      <c r="O11" s="0" t="n"/>
+      <c r="P11" s="0" t="n"/>
+      <c r="Q11" s="0" t="n"/>
+      <c r="R11" s="0" t="n"/>
+      <c r="S11" s="0" t="n"/>
+      <c r="T11" s="0" t="n"/>
+      <c r="U11" s="0" t="n"/>
+      <c r="V11" s="0" t="n"/>
+      <c r="W11" s="0" t="n"/>
+      <c r="X11" s="0" t="n"/>
       <c r="Y11" s="0" t="inlineStr">
         <is>
           <t>1</t>
@@ -2310,115 +1892,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>58298.4</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="S12" s="0" t="inlineStr">
-        <is>
-          <t>8729.2537</t>
-        </is>
-      </c>
-      <c r="T12" s="0" t="inlineStr">
-        <is>
-          <t>461.058</t>
-        </is>
-      </c>
-      <c r="U12" s="0" t="inlineStr">
-        <is>
-          <t>659.3449999999999</t>
-        </is>
-      </c>
-      <c r="V12" s="0" t="inlineStr">
-        <is>
-          <t>550.0</t>
-        </is>
-      </c>
-      <c r="W12" s="0" t="inlineStr">
-        <is>
-          <t>10707.655</t>
-        </is>
-      </c>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="0" t="n"/>
+      <c r="F12" s="0" t="n"/>
+      <c r="H12" s="0" t="n"/>
+      <c r="I12" s="0" t="n"/>
+      <c r="J12" s="0" t="n"/>
+      <c r="K12" s="0" t="n"/>
+      <c r="L12" s="0" t="n"/>
+      <c r="M12" s="0" t="n"/>
+      <c r="N12" s="0" t="n"/>
+      <c r="O12" s="0" t="n"/>
+      <c r="P12" s="0" t="n"/>
+      <c r="Q12" s="0" t="n"/>
+      <c r="R12" s="0" t="n"/>
+      <c r="S12" s="0" t="n"/>
+      <c r="T12" s="0" t="n"/>
+      <c r="U12" s="0" t="n"/>
+      <c r="V12" s="0" t="n"/>
+      <c r="W12" s="0" t="n"/>
+      <c r="X12" s="0" t="n"/>
       <c r="Y12" s="0" t="inlineStr">
         <is>
           <t>0</t>
@@ -2695,417 +2191,109 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>7597.8</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t>14.442</t>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>29.623</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t>4.7570000000000014</t>
-        </is>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t>6.442</t>
-        </is>
-      </c>
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+      <c r="F5" s="0" t="n"/>
+      <c r="H5" s="0" t="n"/>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="0" t="n"/>
+      <c r="K5" s="0" t="n"/>
+      <c r="L5" s="0" t="n"/>
+      <c r="M5" s="0" t="n"/>
+      <c r="N5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>6753.6</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t>14.96</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>28.816</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t>4.574000000000002</t>
-        </is>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>5.960000000000001</t>
-        </is>
-      </c>
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+      <c r="F6" s="0" t="n"/>
+      <c r="H6" s="0" t="n"/>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
+      <c r="K6" s="0" t="n"/>
+      <c r="L6" s="0" t="n"/>
+      <c r="M6" s="0" t="n"/>
+      <c r="N6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>5909.4</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>28.016</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>4.564</t>
-        </is>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>5.279999999999999</t>
-        </is>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+      <c r="F7" s="0" t="n"/>
+      <c r="H7" s="0" t="n"/>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="K7" s="0" t="n"/>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
+      <c r="N7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>5065.2</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>16.748</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>25.497</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>5.277999999999999</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>6.748000000000001</t>
-        </is>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+      <c r="F8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
+      <c r="N8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>4221.0</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>15.657</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>24.625</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>4.795000000000002</t>
-        </is>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>5.657</t>
-        </is>
-      </c>
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>3376.8</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>14.525</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>23.757</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>4.525</t>
-        </is>
-      </c>
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n"/>
+      <c r="H10" s="0" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
+      <c r="N10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>2532.6</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>16.788</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>21.305</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>5.690000000000001</t>
-        </is>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>6.788</t>
-        </is>
-      </c>
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
+      <c r="N11" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3234,7 +2422,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>1393.5929</t>
+          <t>1393.5932</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
@@ -3293,7 +2481,7 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>1388.0973</t>
+          <t>1388.0975</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
@@ -3352,7 +2540,7 @@
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>967.6002</t>
+          <t>967.6003</t>
         </is>
       </c>
       <c r="K4" s="0" t="inlineStr">
@@ -3362,7 +2550,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>56.911</t>
+          <t>56.91</t>
         </is>
       </c>
       <c r="M4" s="0" t="inlineStr">
@@ -3377,8 +2565,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>2021</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -3387,468 +2577,158 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>7597.8</t>
+          <t>22842.0</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>71.07</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>71.07</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>1253.1548</t>
+          <t>3749.291</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>54.349</t>
+          <t>186.904</t>
         </is>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>79.875</t>
+          <t>380.428</t>
         </is>
       </c>
       <c r="M5" s="0" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>1475.378</t>
+          <t>4580.623</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>6753.6</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>1042.3783</t>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t>51.225</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>59.307</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>1240.91</t>
-        </is>
-      </c>
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+      <c r="F6" s="0" t="n"/>
+      <c r="H6" s="0" t="n"/>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
+      <c r="K6" s="0" t="n"/>
+      <c r="L6" s="0" t="n"/>
+      <c r="M6" s="0" t="n"/>
+      <c r="N6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>5909.4</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>849.7017</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>50.508</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>39.616</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>1027.826</t>
-        </is>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+      <c r="F7" s="0" t="n"/>
+      <c r="H7" s="0" t="n"/>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="K7" s="0" t="n"/>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
+      <c r="N7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>5065.2</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>663.526</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>33.892</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>34.169</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>819.587</t>
-        </is>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+      <c r="F8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
+      <c r="N8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>4221.0</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>516.0071</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>33.672</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>26.458</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>664.137</t>
-        </is>
-      </c>
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>3376.8</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>383.1386</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>33.672</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>26.327</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>531.138</t>
-        </is>
-      </c>
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n"/>
+      <c r="H10" s="0" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
+      <c r="N10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>2532.6</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>272.0568</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>16.836</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>13.164</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>368.056</t>
-        </is>
-      </c>
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
+      <c r="N11" s="0" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>58298.4</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>8729.2537</t>
-        </is>
-      </c>
-      <c r="K12" s="0" t="inlineStr">
-        <is>
-          <t>461.058</t>
-        </is>
-      </c>
-      <c r="L12" s="0" t="inlineStr">
-        <is>
-          <t>659.3449999999999</t>
-        </is>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>550.0</t>
-        </is>
-      </c>
-      <c r="N12" s="0" t="inlineStr">
-        <is>
-          <t>10707.655</t>
-        </is>
-      </c>
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="0" t="n"/>
+      <c r="F12" s="0" t="n"/>
+      <c r="H12" s="0" t="n"/>
+      <c r="I12" s="0" t="n"/>
+      <c r="J12" s="0" t="n"/>
+      <c r="K12" s="0" t="n"/>
+      <c r="L12" s="0" t="n"/>
+      <c r="M12" s="0" t="n"/>
+      <c r="N12" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3862,7 +2742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -3928,446 +2808,221 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>8442.0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>28.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="0" t="inlineStr">
         <is>
           <t>6.058</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="0" t="inlineStr">
         <is>
           <t>4.933</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>8400.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>28.0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>99.5</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>99.5</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="0" t="inlineStr">
         <is>
           <t>6.051</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="0" t="inlineStr">
         <is>
           <t>4.924</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>6000.0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>28.0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>71.07</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>71.07</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t>6.201</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="0" t="inlineStr">
         <is>
           <t>5.159</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7597.8</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>6.063</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+      <c r="F5" s="0" t="n"/>
+      <c r="H5" s="0" t="n"/>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="0" t="n"/>
+      <c r="K5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6753.6</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>6.479</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>5.442</t>
-        </is>
-      </c>
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+      <c r="F6" s="0" t="n"/>
+      <c r="H6" s="0" t="n"/>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
+      <c r="K6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5909.4</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>6.955</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>5.749</t>
-        </is>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+      <c r="F7" s="0" t="n"/>
+      <c r="H7" s="0" t="n"/>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="K7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5065.2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>7.634</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+      <c r="F8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4221.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>6.356</t>
-        </is>
-      </c>
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3376.8</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>8.814</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>6.358</t>
-        </is>
-      </c>
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n"/>
+      <c r="H10" s="0" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2532.6</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>9.309</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>6.881</t>
-        </is>
-      </c>
-    </row>
-    <row r="12"/>
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4617,382 +3272,102 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>7597.8</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t>29.623</t>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>2.623</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t>4.7570000000000014</t>
-        </is>
-      </c>
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+      <c r="F5" s="0" t="n"/>
+      <c r="H5" s="0" t="n"/>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="0" t="n"/>
+      <c r="K5" s="0" t="n"/>
+      <c r="L5" s="0" t="n"/>
+      <c r="M5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>6753.6</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>33.39</t>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t>28.816</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>2.816</t>
-        </is>
-      </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t>4.574000000000002</t>
-        </is>
-      </c>
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+      <c r="F6" s="0" t="n"/>
+      <c r="H6" s="0" t="n"/>
+      <c r="I6" s="0" t="n"/>
+      <c r="J6" s="0" t="n"/>
+      <c r="K6" s="0" t="n"/>
+      <c r="L6" s="0" t="n"/>
+      <c r="M6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>5909.4</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>32.58</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>28.016</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>3.016</t>
-        </is>
-      </c>
-      <c r="M7" s="0" t="inlineStr">
-        <is>
-          <t>4.564</t>
-        </is>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+      <c r="F7" s="0" t="n"/>
+      <c r="H7" s="0" t="n"/>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="0" t="n"/>
+      <c r="K7" s="0" t="n"/>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>5065.2</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>30.775</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>25.497</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>1.497</t>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>5.277999999999999</t>
-        </is>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+      <c r="F8" s="0" t="n"/>
+      <c r="H8" s="0" t="n"/>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="n"/>
+      <c r="K8" s="0" t="n"/>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>4221.0</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>24.625</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>1.625</t>
-        </is>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>4.795000000000002</t>
-        </is>
-      </c>
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n"/>
+      <c r="H9" s="0" t="n"/>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="n"/>
+      <c r="K9" s="0" t="n"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>3376.8</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>27.757</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>23.757</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>1.757</t>
-        </is>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n"/>
+      <c r="H10" s="0" t="n"/>
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="n"/>
+      <c r="K10" s="0" t="n"/>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>2532.6</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>26.995</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>21.305</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>1.305</t>
-        </is>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>5.690000000000001</t>
-        </is>
-      </c>
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+      <c r="F11" s="0" t="n"/>
+      <c r="H11" s="0" t="n"/>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="0" t="n"/>
+      <c r="K11" s="0" t="n"/>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
